--- a/cg_lab_2017-master/06_shadow_mapping_handout/CG Lab Project Submission Checklist.xlsx
+++ b/cg_lab_2017-master/06_shadow_mapping_handout/CG Lab Project Submission Checklist.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christoph\Desktop\cg-project\trunk\cg_lab_2017-master\06_shadow_mapping_handout\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>Project Name:</t>
   </si>
@@ -138,14 +133,7 @@
     <t>Special effects (as in concept)</t>
   </si>
   <si>
-    <t>EFFECT#_1 
-(e.g. S6. Animated water surface)</t>
-  </si>
-  <si>
     <t>EFFECT#_2</t>
-  </si>
-  <si>
-    <t>EFFECT#_3</t>
   </si>
   <si>
     <t>Y</t>
@@ -154,13 +142,34 @@
     <t>partially</t>
   </si>
   <si>
-    <t>15…</t>
-  </si>
-  <si>
     <t>particle system (20p)</t>
   </si>
   <si>
     <t>heightmap (10p)</t>
+  </si>
+  <si>
+    <t>crawl movements of snipers and walking of soldiers</t>
+  </si>
+  <si>
+    <t>soldiers, sniper and opponents as set of cubes</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>camouflage of warriors</t>
+  </si>
+  <si>
+    <t>watch tower, tent and bullet</t>
+  </si>
+  <si>
+    <t>Partially</t>
+  </si>
+  <si>
+    <t>There are two light sources (one general and one fire) but without moving</t>
+  </si>
+  <si>
+    <t>EFFECT#_1</t>
   </si>
 </sst>
 </file>
@@ -507,7 +516,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -515,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z994"/>
+  <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -598,8 +607,8 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
+      <c r="B3" s="2">
+        <v>1555449</v>
       </c>
       <c r="C3" s="8">
         <v>0.5</v>
@@ -755,7 +764,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -787,7 +796,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -819,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -851,7 +860,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -883,7 +892,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -915,7 +924,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -947,7 +956,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -979,7 +988,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1011,7 +1020,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1043,7 +1052,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1075,10 +1084,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1109,7 +1118,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1141,7 +1150,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1173,7 +1182,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1205,7 +1214,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1237,7 +1246,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1269,7 +1278,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1358,8 +1367,12 @@
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1388,8 +1401,12 @@
       <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1418,7 +1435,9 @@
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1448,8 +1467,12 @@
       <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1479,9 +1502,11 @@
         <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1510,8 +1535,12 @@
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1540,7 +1569,9 @@
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1570,7 +1601,9 @@
       <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1600,7 +1633,9 @@
       <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1631,7 +1666,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1663,7 +1698,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1750,13 +1785,13 @@
     </row>
     <row r="40" spans="1:26">
       <c r="A40" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1784,13 +1819,13 @@
     </row>
     <row r="41" spans="1:26">
       <c r="A41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="C41" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1817,8 +1852,8 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="6" t="s">
-        <v>41</v>
+      <c r="A42" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1847,9 +1882,7 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -28476,34 +28509,6 @@
       <c r="Y993" s="3"/>
       <c r="Z993" s="3"/>
     </row>
-    <row r="994" spans="1:26">
-      <c r="A994" s="3"/>
-      <c r="B994" s="3"/>
-      <c r="C994" s="3"/>
-      <c r="D994" s="3"/>
-      <c r="E994" s="3"/>
-      <c r="F994" s="3"/>
-      <c r="G994" s="3"/>
-      <c r="H994" s="3"/>
-      <c r="I994" s="3"/>
-      <c r="J994" s="3"/>
-      <c r="K994" s="3"/>
-      <c r="L994" s="3"/>
-      <c r="M994" s="3"/>
-      <c r="N994" s="3"/>
-      <c r="O994" s="3"/>
-      <c r="P994" s="3"/>
-      <c r="Q994" s="3"/>
-      <c r="R994" s="3"/>
-      <c r="S994" s="3"/>
-      <c r="T994" s="3"/>
-      <c r="U994" s="3"/>
-      <c r="V994" s="3"/>
-      <c r="W994" s="3"/>
-      <c r="X994" s="3"/>
-      <c r="Y994" s="3"/>
-      <c r="Z994" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
